--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/Documents/Degree/Semester8/6000CEM_Individual_Project_Preparation/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1365399-0E9B-524C-AEDB-70C4DC5BACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0EB37E-45B0-EB46-B1A4-94C181E7F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$44</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>Class</t>
-  </si>
-  <si>
-    <t>Rate per Hour
-RM</t>
   </si>
   <si>
     <t>Total 
@@ -259,7 +255,7 @@
     <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,12 +293,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Freestyle Script"/>
-      <family val="4"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,7 +376,7 @@
       <name val="JasmineUPC"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +425,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -601,19 +597,16 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -625,20 +618,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,9 +650,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -678,7 +660,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -686,27 +668,27 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,28 +708,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -784,7 +762,28 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -814,47 +813,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -889,13 +862,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>292101</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>228601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1701801</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>12701</xdr:rowOff>
@@ -1160,7 +1133,7 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>946150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
@@ -1535,711 +1508,711 @@
       <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="I2" s="28" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="I3" s="30">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="I3" s="26">
         <v>1</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="I4" s="32">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="I4" s="28">
         <v>2</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="I5" s="30">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="I5" s="26">
         <v>3</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="I6" s="32">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="I6" s="28">
         <v>4</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="68"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="I7" s="30">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="26">
         <v>5</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="31" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="I8" s="32">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="I8" s="28">
         <v>6</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="I9" s="30">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="26">
         <v>7</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="31" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="I10" s="32">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="28">
         <v>8</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="26">
         <v>9</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="27" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="I12" s="32">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="I12" s="28">
         <v>10</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="50"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="50"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="50"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="50"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="50"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="50"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
-      <c r="D30" s="52">
+      <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E30" s="46">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="46">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55" t="s">
+      <c r="A33" s="48"/>
+      <c r="B33" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="16">
+      <c r="B34" s="10"/>
+      <c r="C34" s="13">
         <f>D30</f>
         <v>0</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <f>C34*B34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="16">
+      <c r="B35" s="10"/>
+      <c r="C35" s="13">
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <f>C35*B35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="16">
+      <c r="B36" s="10"/>
+      <c r="C36" s="13">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <f>C36*B36</f>
         <v>0</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="65"/>
-      <c r="C37" s="57">
+      <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D37" s="52">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10">
         <v>30</v>
       </c>
-      <c r="C41" s="59">
+      <c r="C41" s="53">
         <f>A41*B41</f>
         <v>0</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8" t="s">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="8"/>
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="2"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="2"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="60"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="60"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="54"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="2" t="s">
+      <c r="E48" s="6"/>
+      <c r="F48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G48" s="2"/>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="6"/>
+      <c r="F49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="6"/>
+      <c r="F50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G50" s="2"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="60"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2257,681 +2230,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="14.5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="8.5" style="18"/>
+    <col min="1" max="1" width="34.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="15" customWidth="1"/>
+    <col min="3" max="5" width="14.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="79" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="80" t="s">
+      <c r="B5" s="61"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="80" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="38" t="s">
+      <c r="B12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="C12" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="D12" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="E12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="F12" s="34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75" t="s">
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="56"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="56"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="23"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="36">
-        <f>SUM(D12:D24)</f>
+      <c r="B26" s="32">
+        <f>SUM(B13:B25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="36">
-        <f>SUM(E12:E24)</f>
+      <c r="C26" s="32">
+        <f>SUM(C13:C25)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="36">
-        <f>SUM(F12:F24)</f>
+      <c r="D26" s="32">
+        <f>SUM(D13:D25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="36">
-        <f>SUM(G12:G24)</f>
+      <c r="E26" s="32">
+        <f>SUM(E13:E25)</f>
         <v>0</v>
       </c>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B29" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="41" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="76">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="12">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="12">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12">
+        <f>E26</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40">
+        <f>SUM(B30:B33)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="42"/>
+      <c r="B40"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="63"/>
+      <c r="F40" s="57"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="15">
-        <f>D25</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="42">
-        <f>B29*C29</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="15">
-        <f>E25</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <f>B30*C30</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="15">
-        <f>F25</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <f>B31*C31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="15">
-        <f>G25</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <f>C32*B32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="45">
-        <f>SUM(C29:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="46">
-        <f>SUM(D29:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="44"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="85"/>
-      <c r="H39" s="63"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="7" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43"/>
+      <c r="C43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="H40" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="H41" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" s="2" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="16"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-    </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B24" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>"Foundation, Certificates, Diploma, Degree, Master, Doctorate"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -2943,7 +2784,7 @@
           <x14:formula1>
             <xm:f>'blank claim'!$J$3:$J$12</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:H2 A4:D4</xm:sqref>
+          <xm:sqref>B2:F2 A4:B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2952,26 +2793,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3226,26 +3047,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3262,4 +3084,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0EB37E-45B0-EB46-B1A4-94C181E7F286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5C158-949D-3C46-9326-407AB07CD91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$47</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Approved by HR:</t>
+  </si>
+  <si>
+    <t>Rate (RM)</t>
+  </si>
+  <si>
+    <t>Total Hours Left for this Semester:</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,7 @@
     <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +381,13 @@
       <color theme="1"/>
       <name val="JasmineUPC"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -605,7 +618,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -787,6 +800,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -822,14 +843,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1497,15 +1515,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1558,8 +1576,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1575,8 +1593,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1592,10 +1610,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1858,9 +1876,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
+      <c r="A30" s="72"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1962,10 +1980,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="65"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2230,10 +2248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2246,22 +2264,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2277,10 +2295,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2297,7 +2315,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="78" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="62"/>
@@ -2337,17 +2355,17 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="62"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2355,32 +2373,34 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C13" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D13" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F13" s="34" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
@@ -2423,7 +2443,7 @@
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
@@ -2470,99 +2490,84 @@
       <c r="E24" s="36"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="75" t="s">
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="32">
-        <f>SUM(B13:B25)</f>
+      <c r="B29" s="32">
+        <f>SUM(B14:B28)</f>
         <v>0</v>
       </c>
-      <c r="C26" s="32">
-        <f>SUM(C13:C25)</f>
+      <c r="C29" s="32">
+        <f>SUM(C14:C28)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="32">
-        <f>SUM(D13:D25)</f>
+      <c r="D29" s="32">
+        <f>SUM(D14:D28)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="32">
-        <f>SUM(E13:E25)</f>
+      <c r="E29" s="32">
+        <f>SUM(E14:E28)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="76">
-        <f>B26</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="12">
-        <f>C26</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="12">
-        <f>D26</f>
-        <v>0</v>
+    <row r="32" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>52</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2571,10 +2576,10 @@
     </row>
     <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="12">
-        <f>E26</f>
+        <v>30</v>
+      </c>
+      <c r="B33" s="65">
+        <f>(B10*B29)</f>
         <v>0</v>
       </c>
       <c r="C33" s="6"/>
@@ -2583,11 +2588,11 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="40">
-        <f>SUM(B30:B33)</f>
+      <c r="A34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="12">
+        <f>(B10*C29)</f>
         <v>0</v>
       </c>
       <c r="C34" s="6"/>
@@ -2596,149 +2601,166 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="12">
+        <f>(B10*D29)</f>
+        <v>0</v>
+      </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="12">
+        <f>(B10*E29)</f>
+        <v>0</v>
+      </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="40">
+        <f>SUM(B33:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="39" t="s">
+      <c r="D41" s="39"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="42"/>
-      <c r="B40"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="63"/>
-      <c r="F40" s="57"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="63"/>
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="5" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="F41" s="5" t="s">
+      <c r="D44" s="5"/>
+      <c r="F44" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="77" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="F42" s="5" t="s">
+      <c r="D45" s="5"/>
+      <c r="F45" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B43"/>
-      <c r="C43" s="1" t="s">
+      <c r="B46"/>
+      <c r="C46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="F43" s="1" t="s">
+      <c r="D46" s="1"/>
+      <c r="F46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="A48" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="16"/>
+      <c r="A49" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2746,9 +2768,7 @@
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2756,16 +2776,44 @@
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="16"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="16"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD5C158-949D-3C46-9326-407AB07CD91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AF5DD-D82C-6C48-A45B-545162654AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44040" yWindow="-920" windowWidth="23160" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Total Hours Left for this Semester:</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
@@ -808,6 +811,11 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -843,11 +851,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1515,15 +1518,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1576,8 +1579,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1593,8 +1596,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1610,10 +1613,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1876,9 +1879,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1980,10 +1983,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="68"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2250,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2264,22 +2267,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2295,10 +2298,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2315,7 +2318,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="67" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="62"/>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="6"/>
@@ -2648,10 +2651,10 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="80"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4AF5DD-D82C-6C48-A45B-545162654AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BD619-2B33-174E-9173-653DE42E2338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44040" yWindow="-920" windowWidth="23160" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$48</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -244,10 +244,19 @@
     <t>Rate (RM)</t>
   </si>
   <si>
-    <t>Total Hours Left for this Semester:</t>
-  </si>
-  <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Total Hours Completed</t>
+  </si>
+  <si>
+    <t>Total Hours Left</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Date (dd/mm/yyyy)</t>
   </si>
 </sst>
 </file>
@@ -607,7 +616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -620,8 +629,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -814,8 +824,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -851,8 +859,19 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -865,6 +884,7 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Per cent" xfId="12" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1518,15 +1538,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1579,8 +1599,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1596,8 +1616,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1613,10 +1633,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1879,9 +1899,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1983,10 +2003,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="71"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2251,10 +2271,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2267,22 +2287,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2298,10 +2318,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2349,7 +2369,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="6"/>
@@ -2387,7 +2407,7 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>20</v>
@@ -2548,223 +2568,240 @@
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="79"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>52</v>
-      </c>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B34" s="65">
         <f>(B10*B29)</f>
         <v>0</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="81"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B35" s="12">
         <f>(B10*C29)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="81"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B36" s="12">
         <f>(B10*D29)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="81"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B37" s="12">
         <f>(B10*E29)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="81"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="40">
-        <f>SUM(B33:B36)</f>
+      <c r="B38" s="40">
+        <f>SUM(B34:B37)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="82">
+        <f>SUM(E34:E37)</f>
+        <v>0</v>
+      </c>
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="69"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="39" t="s">
+      <c r="D42" s="39"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="63"/>
-      <c r="F43" s="57"/>
+      <c r="A43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="42"/>
+      <c r="B44"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="63"/>
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
         <v>41</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="66" t="s">
-        <v>53</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D45" s="5"/>
       <c r="F45" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="66" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="B46" s="3"/>
+      <c r="C46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B46"/>
-      <c r="C46" s="1" t="s">
+      <c r="B47"/>
+      <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="F46" s="1" t="s">
+      <c r="D47" s="1"/>
+      <c r="F47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2779,7 +2816,7 @@
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2787,9 +2824,7 @@
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="16"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2798,7 +2833,7 @@
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="7"/>
@@ -2808,7 +2843,7 @@
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="7"/>
@@ -2816,7 +2851,17 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="16"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -2844,6 +2889,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3098,27 +3163,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3135,23 +3199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BD619-2B33-174E-9173-653DE42E2338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF46B3A-EA12-5A49-87AA-3D87C0836AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Total Hours Left</t>
-  </si>
-  <si>
-    <t>Hours</t>
   </si>
   <si>
     <t>Date (dd/mm/yyyy)</t>
@@ -631,7 +628,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -824,6 +821,16 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -858,17 +865,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1538,15 +1534,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1599,8 +1595,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1616,8 +1612,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1633,10 +1629,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1899,9 +1895,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -2003,10 +1999,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="69"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2273,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2287,22 +2283,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2318,10 +2314,10 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="78"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -2407,7 +2403,7 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>20</v>
@@ -2568,16 +2564,16 @@
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="79"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2607,7 +2603,7 @@
         <v>51</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6"/>
     </row>
@@ -2623,7 +2619,7 @@
       <c r="D34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="81"/>
+      <c r="E34" s="69"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2638,7 +2634,7 @@
       <c r="D35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="81"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2653,7 +2649,7 @@
       <c r="D36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="81"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2668,7 +2664,7 @@
       <c r="D37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="81"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2679,7 @@
       <c r="D38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="82">
+      <c r="E38" s="70">
         <f>SUM(E34:E37)</f>
         <v>0</v>
       </c>
@@ -2698,8 +2694,8 @@
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2900,15 +2896,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3163,6 +3150,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
@@ -3175,14 +3171,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3199,4 +3187,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF46B3A-EA12-5A49-87AA-3D87C0836AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE3772-DA1E-1F4C-9DDA-C85308AFE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2603,9 +2603,11 @@
         <v>51</v>
       </c>
       <c r="E33" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
@@ -2620,7 +2622,7 @@
         <v>30</v>
       </c>
       <c r="E34" s="69"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="69"/>
     </row>
     <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -2635,7 +2637,7 @@
         <v>31</v>
       </c>
       <c r="E35" s="69"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="69"/>
     </row>
     <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -2650,7 +2652,7 @@
         <v>49</v>
       </c>
       <c r="E36" s="69"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="69"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -2665,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="69"/>
-      <c r="F37" s="6"/>
+      <c r="F37" s="69"/>
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
@@ -2683,7 +2685,10 @@
         <f>SUM(E34:E37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="6"/>
+      <c r="F38" s="70">
+        <f>SUM(F34:F37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
@@ -2896,6 +2901,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3150,15 +3164,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
@@ -3171,6 +3176,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3187,12 +3200,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAE3772-DA1E-1F4C-9DDA-C85308AFE2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F0FDE-CF85-0E48-BF8F-4F23CDF9148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2685,7 +2685,7 @@
         <f>SUM(E34:E37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="70">
+      <c r="F38" s="40">
         <f>SUM(F34:F37)</f>
         <v>0</v>
       </c>
@@ -2890,6 +2890,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
@@ -2898,15 +2907,6 @@
     <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3165,20 +3165,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
     <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74F0FDE-CF85-0E48-BF8F-4F23CDF9148F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE165EE-97E9-EE45-9AC2-FC6239F21024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,8 +70,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -254,6 +276,15 @@
   </si>
   <si>
     <t>Date (dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Important Note:</t>
+  </si>
+  <si>
+    <t>Submit 1st to 10th to HR &gt; payout by 25th of the same month</t>
+  </si>
+  <si>
+    <t>Submit after 11th to HR &gt; payout by 25th of the following month</t>
   </si>
 </sst>
 </file>
@@ -270,7 +301,7 @@
     <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +428,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -628,7 +674,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -798,10 +844,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -865,6 +907,20 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -893,326 +949,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>292101</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1701801</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19D011A-59FB-9E47-B494-F026A64BF65B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4368801" y="1092201"/>
-          <a:ext cx="3467100" cy="749300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:prstClr val="black"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="1000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" u="sng">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Important Note:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:effectLst/>
-            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="182880" marR="0" lvl="0" indent="-182880">
-            <a:lnSpc>
-              <a:spcPct val="50000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buFont typeface="+mj-lt"/>
-            <a:buAutoNum type="alphaLcParenBoth"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Part Time Lecturer's </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="0">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Claim</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="900">
-            <a:effectLst/>
-            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="274320" marR="0">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Submit 1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="30000">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>st</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> to 10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="30000">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>th</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> to HR &gt; payout by 25</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="30000">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>th</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> of the same month</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="274320" marR="0">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>Submit after 11</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="30000">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>th</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> to HR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="0">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>&gt; payout by 25</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900" baseline="30000">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>th</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:effectLst/>
-              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> of the following month</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>946150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1555750" cy="438149"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FF0B72-A8CF-2843-BC9D-F033CBE9442E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect b="16004"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6051550" y="571501"/>
-          <a:ext cx="1555750" cy="438149"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1251,6 +987,70 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1534,15 +1334,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1595,8 +1395,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1612,8 +1412,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1629,10 +1429,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1895,9 +1695,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1999,10 +1799,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="73"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2269,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2283,22 +2083,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2311,35 +2111,41 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="F3" s="82" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="82"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="86"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="83" t="s">
+        <v>60</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="85" t="s">
+        <v>61</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
@@ -2347,9 +2153,11 @@
       <c r="A7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="62"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="85" t="s">
+        <v>62</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
@@ -2357,9 +2165,9 @@
       <c r="A8" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2367,7 +2175,7 @@
       <c r="A9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="62"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2377,7 +2185,7 @@
       <c r="A10" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="62"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2542,7 +2350,7 @@
       <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="32">
@@ -2565,15 +2373,15 @@
     </row>
     <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
-      <c r="B31" s="68"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2613,7 +2421,7 @@
       <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="64">
         <f>(B10*B29)</f>
         <v>0</v>
       </c>
@@ -2621,8 +2429,8 @@
       <c r="D34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
     </row>
     <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
@@ -2636,8 +2444,8 @@
       <c r="D35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
@@ -2651,8 +2459,8 @@
       <c r="D36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
     </row>
     <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
@@ -2666,8 +2474,8 @@
       <c r="D37" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
     </row>
     <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58" t="s">
@@ -2681,7 +2489,7 @@
       <c r="D38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="70">
+      <c r="E38" s="69">
         <f>SUM(E34:E37)</f>
         <v>0</v>
       </c>
@@ -2700,7 +2508,7 @@
     </row>
     <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
-      <c r="B40" s="68"/>
+      <c r="B40" s="67"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2738,7 +2546,7 @@
       <c r="A44" s="42"/>
       <c r="B44"/>
       <c r="C44" s="57"/>
-      <c r="D44" s="63"/>
+      <c r="D44" s="62"/>
       <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2755,7 +2563,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="65" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="3"/>
@@ -2864,16 +2672,16 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -2890,26 +2698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3164,10 +2952,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3184,20 +3003,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE165EE-97E9-EE45-9AC2-FC6239F21024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7B0E3-792C-4B4C-A239-3005C9A47193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,28 +68,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,6 +851,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -908,20 +897,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -987,70 +963,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1334,15 +1246,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
@@ -1395,8 +1307,8 @@
       <c r="A5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1412,8 +1324,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1429,10 +1341,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1695,9 +1607,9 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="46">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1799,10 +1711,10 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="51">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -2069,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2083,22 +1995,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2111,27 +2023,25 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="82" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="82"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="83" t="s">
+      <c r="D5" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E5" s="6"/>
@@ -2143,7 +2053,7 @@
       </c>
       <c r="B6" s="61"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="85" t="s">
+      <c r="D6" s="73" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="6"/>
@@ -2155,7 +2065,7 @@
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="73" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="6"/>
@@ -2167,7 +2077,7 @@
       </c>
       <c r="B8" s="61"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="84"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
@@ -2672,11 +2582,10 @@
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2698,6 +2607,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -2952,27 +2881,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2989,23 +2917,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7B0E3-792C-4B4C-A239-3005C9A47193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FAD36-5EF4-E748-BA92-8DA385C36BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$45</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -235,9 +235,6 @@
 RM</t>
   </si>
   <si>
-    <t xml:space="preserve">Position: </t>
-  </si>
-  <si>
     <t>Approved by HR:</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Total Hours Completed</t>
   </si>
   <si>
-    <t>Total Hours Left</t>
-  </si>
-  <si>
     <t>Date (dd/mm/yyyy)</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>Submit after 11th to HR &gt; payout by 25th of the following month</t>
+  </si>
+  <si>
+    <t>Reviewed by PO:</t>
+  </si>
+  <si>
+    <t>Approved by Dean/HOS:</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
     <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,14 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -422,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,12 +463,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -637,7 +623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -645,14 +631,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -707,7 +692,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -715,27 +700,27 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,14 +740,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -772,7 +756,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -809,7 +793,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -826,36 +810,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -888,18 +855,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -912,7 +878,6 @@
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="Per cent" xfId="12" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1246,21 +1211,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -1304,11 +1269,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1324,8 +1289,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1341,10 +1306,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -1433,7 +1398,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1415,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1426,7 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +1437,7 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1481,7 +1446,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="44"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -1490,7 +1455,7 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1499,7 +1464,7 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1508,7 +1473,7 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1517,7 +1482,7 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -1526,7 +1491,7 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="44"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -1535,7 +1500,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1544,7 +1509,7 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -1553,7 +1518,7 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1562,7 +1527,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1571,7 +1536,7 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1580,7 +1545,7 @@
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1589,7 +1554,7 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1598,31 +1563,31 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="81"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="46">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="45">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="45">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="45">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="47"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
@@ -1645,14 +1610,14 @@
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="6"/>
@@ -1711,15 +1676,15 @@
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="51">
+      <c r="B37" s="70"/>
+      <c r="C37" s="50">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="51">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
@@ -1748,13 +1713,13 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="49" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="6"/>
@@ -1766,7 +1731,7 @@
       <c r="B41" s="10">
         <v>30</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="52">
         <f>A41*B41</f>
         <v>0</v>
       </c>
@@ -1823,12 +1788,12 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="54"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="54"/>
+      <c r="C47" s="53"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1882,15 +1847,15 @@
       <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
@@ -1922,7 +1887,7 @@
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="54"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
@@ -1979,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1995,22 +1960,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -2023,86 +1988,86 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="86"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="85"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="86"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="71" t="s">
-        <v>60</v>
+      <c r="D5" s="65" t="s">
+        <v>58</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="61"/>
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="73" t="s">
-        <v>61</v>
+      <c r="D6" s="67" t="s">
+        <v>59</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="61"/>
+      <c r="A7" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="60"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="73" t="s">
-        <v>62</v>
+      <c r="D7" s="67" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="61"/>
+      <c r="A8" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="60"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="72"/>
+      <c r="D8" s="66"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="61"/>
+      <c r="A9" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="60"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="61"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2110,37 +2075,35 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="A12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="55"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -2148,7 +2111,7 @@
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -2156,38 +2119,38 @@
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="55"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="55"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -2195,7 +2158,7 @@
       <c r="E20" s="36"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -2203,7 +2166,7 @@
       <c r="E21" s="36"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -2211,7 +2174,7 @@
       <c r="E22" s="36"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -2219,7 +2182,7 @@
       <c r="E23" s="36"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -2227,7 +2190,7 @@
       <c r="E24" s="36"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -2235,7 +2198,7 @@
       <c r="E25" s="36"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -2243,172 +2206,146 @@
       <c r="E26" s="36"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="32">
-        <f>SUM(B14:B28)</f>
+      <c r="B28" s="32">
+        <f>SUM(B13:B27)</f>
         <v>0</v>
       </c>
-      <c r="C29" s="32">
-        <f>SUM(C14:C28)</f>
+      <c r="C28" s="32">
+        <f>SUM(C13:C27)</f>
         <v>0</v>
       </c>
-      <c r="D29" s="32">
-        <f>SUM(D14:D28)</f>
+      <c r="D28" s="32">
+        <f>SUM(D13:D27)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="32">
-        <f>SUM(E14:E28)</f>
+      <c r="E28" s="32">
+        <f>SUM(E13:E27)</f>
         <v>0</v>
       </c>
-      <c r="F29" s="33"/>
-    </row>
-    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F28" s="33"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="11"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B32" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="62">
+        <f>(B9*B28)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="64">
-        <f>(B10*B29)</f>
+        <v>31</v>
+      </c>
+      <c r="B34" s="12">
+        <f>(B9*C28)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B35" s="12">
-        <f>(B10*C29)</f>
+        <f>(B9*D28)</f>
         <v>0</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B36" s="12">
-        <f>(B10*D29)</f>
+        <f>(B9*E28)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-    </row>
-    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="12">
-        <f>(B10*E29)</f>
+    </row>
+    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="39">
+        <f>SUM(B33:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-    </row>
-    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="40">
-        <f>SUM(B34:B37)</f>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="69">
-        <f>SUM(E34:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="40">
-        <f>SUM(F34:F37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -2416,118 +2353,118 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
+    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="62"/>
-      <c r="F44" s="57"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
+      <c r="B40" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="41"/>
+      <c r="B42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="F42" s="56"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="F45" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="F43" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B47"/>
-      <c r="C47" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="F47" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+      <c r="F44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="7"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B51" s="16"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2535,7 +2472,9 @@
       <c r="F51" s="7"/>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
+      <c r="A52" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="B52" s="16"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2543,51 +2482,23 @@
       <c r="F52" s="7"/>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
+      <c r="A53" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="B53" s="16"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -2607,26 +2518,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -2881,10 +2772,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2901,20 +2823,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5FAD36-5EF4-E748-BA92-8DA385C36BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3CB5D5-D2FC-A24A-AF25-07A338AA3BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="500" windowWidth="23160" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$69</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Rate (RM)</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
     <t>Total Hours Completed</t>
   </si>
   <si>
@@ -262,7 +259,11 @@
     <t>Reviewed by PO:</t>
   </si>
   <si>
-    <t>Approved by Dean/HOS:</t>
+    <t>Approved by HOP:</t>
+  </si>
+  <si>
+    <t>Approved by
+Dean/ HOS:</t>
   </si>
 </sst>
 </file>
@@ -637,7 +638,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -650,10 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,9 +744,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -820,14 +814,25 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1211,28 +1216,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="24" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1242,14 +1247,14 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="I3" s="26">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="25">
         <v>1</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1257,31 +1262,31 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="28">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="I4" s="27">
         <v>2</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="26">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="I5" s="25">
         <v>3</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1289,16 +1294,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="I6" s="28">
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="I6" s="27">
         <v>4</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1306,48 +1311,48 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="26">
+      <c r="C7" s="74"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="25">
         <v>5</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="28">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="27">
         <v>6</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="28" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="26">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="25">
         <v>7</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1355,427 +1360,427 @@
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="28">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="27">
         <v>8</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>9</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="I12" s="28">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="I12" s="27">
         <v>10</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="43"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="43"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="43"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="43"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="43"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="45">
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="43">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="43">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="43">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="46"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13">
+      <c r="B34" s="9"/>
+      <c r="C34" s="12">
         <f>D30</f>
         <v>0</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <f>C34*B34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13">
+      <c r="B35" s="9"/>
+      <c r="C35" s="12">
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <f>C35*B35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13">
+      <c r="B36" s="9"/>
+      <c r="C36" s="12">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <f>C36*B36</f>
         <v>0</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="70"/>
-      <c r="C37" s="50">
+      <c r="B37" s="71"/>
+      <c r="C37" s="48">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="51">
+      <c r="D37" s="49">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9">
         <v>30</v>
       </c>
-      <c r="C41" s="52">
+      <c r="C41" s="50">
         <f>A41*B41</f>
         <v>0</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="3"/>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6" t="s">
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="6"/>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
-      <c r="E45" s="6"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
@@ -1783,17 +1788,17 @@
       <c r="A46" s="1"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
-      <c r="E46" s="6"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="53"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="53"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
+      <c r="C47" s="51"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1803,7 +1808,7 @@
       <c r="C48" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="6"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="1" t="s">
         <v>42</v>
       </c>
@@ -1813,11 +1818,11 @@
       <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="6"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="1" t="s">
         <v>44</v>
       </c>
@@ -1827,106 +1832,106 @@
       <c r="A50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="6"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="53"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1944,554 +1949,756 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="15" customWidth="1"/>
-    <col min="3" max="5" width="14.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="8.5" style="15"/>
+    <col min="1" max="1" width="34.1640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="15" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="8.5" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="65" t="s">
+      <c r="B5" s="65"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="67" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="53"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="53"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="53"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="53"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="53"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="53"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="53"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="53"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="53"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="22"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="22"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="22"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="22"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="22"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="22"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="22"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="31">
+        <f>SUM(B12:B51)</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="31">
+        <f>SUM(C12:C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="31">
+        <f>SUM(D12:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="31">
+        <f>SUM(E12:E51)</f>
+        <v>0</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="10"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="60">
+        <f>(B8*B52)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="11">
+        <f>(B8*C52)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="11">
+        <f>(B8*D52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="11">
+        <f>(B8*E52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61" s="37">
+        <f>SUM(B57:B60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A64" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="32">
-        <f>SUM(B13:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="32">
-        <f>SUM(C13:C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="32">
-        <f>SUM(D13:D27)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="32">
-        <f>SUM(E13:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="62">
-        <f>(B9*B28)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="12">
-        <f>(B9*C28)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="12">
-        <f>(B9*D28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="12">
-        <f>(B9*E28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="39">
-        <f>SUM(B33:B36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="38" t="s">
+      <c r="C64" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="38" t="s">
+      <c r="D64" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="38" t="s">
+      <c r="E64" s="14"/>
+      <c r="F64" s="68" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="17" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="39"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="F66" s="54"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B67" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="C67" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="D67" s="66" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="17" t="s">
+      <c r="F67" s="66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
+      <c r="F68" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="B75" s="15"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="B76" s="15"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
@@ -2518,6 +2725,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -2772,27 +2999,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2809,23 +3035,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3CB5D5-D2FC-A24A-AF25-07A338AA3BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793BAB2-AF0D-7D4F-9C03-D07D8691A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-920" windowWidth="38400" windowHeight="21100" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -750,10 +750,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -787,10 +783,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,14 +852,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1216,15 +1216,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
@@ -1274,11 +1274,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1294,8 +1294,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1311,10 +1311,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1403,7 +1403,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1420,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1451,7 +1451,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1460,7 +1460,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1469,7 +1469,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1478,7 +1478,7 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="41"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1487,7 +1487,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1496,7 +1496,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1505,7 +1505,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1514,7 +1514,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1523,7 +1523,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1532,7 +1532,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1541,7 +1541,7 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1550,7 +1550,7 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1559,7 +1559,7 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="41"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1568,31 +1568,31 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="43">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="42">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="42">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="42">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -1615,14 +1615,14 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="5"/>
@@ -1681,15 +1681,15 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="48">
+      <c r="B37" s="69"/>
+      <c r="C37" s="47">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="49">
+      <c r="D37" s="48">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
@@ -1718,13 +1718,13 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="46" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="5"/>
@@ -1736,7 +1736,7 @@
       <c r="B41" s="9">
         <v>30</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="49">
         <f>A41*B41</f>
         <v>0</v>
       </c>
@@ -1793,12 +1793,12 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="51"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="51"/>
+      <c r="C47" s="50"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1852,15 +1852,15 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -1892,7 +1892,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="51"/>
+      <c r="A56" s="50"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
@@ -1951,19 +1951,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.1640625" style="14" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="8.5" style="14"/>
+    <col min="6" max="6" width="14.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.5" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1975,14 +1976,15 @@
       <c r="D1" s="78"/>
       <c r="E1" s="78"/>
       <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1998,56 +2000,56 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="58"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="62" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="62" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="58"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2076,349 +2078,389 @@
         <v>56</v>
       </c>
       <c r="B11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="D11" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="E11" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="F11" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="G11" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="34"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="19"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="19"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="52"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="52"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="52"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="52"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="52"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="52"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="52"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="52"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="52"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="52"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="52"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="19"/>
+    </row>
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="52"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="19"/>
-    </row>
-    <row r="42" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="52"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="19"/>
-    </row>
-    <row r="43" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="22"/>
-      <c r="B43" s="34"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="19"/>
-    </row>
-    <row r="44" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="19"/>
+    </row>
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="22"/>
-      <c r="B44" s="34"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="19"/>
-    </row>
-    <row r="45" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="22"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="19"/>
-    </row>
-    <row r="46" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="22"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22"/>
-      <c r="B47" s="34"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="19"/>
-    </row>
-    <row r="48" spans="1:6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="22"/>
-      <c r="B48" s="34"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="19"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="22"/>
-      <c r="B49" s="34"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="19"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="22"/>
-      <c r="B50" s="34"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="19"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
-      <c r="B51" s="34"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="20"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="31">
-        <f>SUM(B12:B51)</f>
-        <v>0</v>
-      </c>
+      <c r="B52" s="32"/>
       <c r="C52" s="31">
         <f>SUM(C12:C51)</f>
         <v>0</v>
@@ -2431,17 +2473,21 @@
         <f>SUM(E12:E51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="31">
+        <f>SUM(F12:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="32"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="10"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2449,7 +2495,7 @@
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="61"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -2487,8 +2533,8 @@
       <c r="A57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="60">
-        <f>(B8*B52)</f>
+      <c r="B57" s="58">
+        <f>(B8*C52)</f>
         <v>0</v>
       </c>
       <c r="H57" s="14"/>
@@ -2500,7 +2546,7 @@
         <v>31</v>
       </c>
       <c r="B58" s="11">
-        <f>(B8*C52)</f>
+        <f>(B8*D52)</f>
         <v>0</v>
       </c>
       <c r="H58" s="14"/>
@@ -2512,7 +2558,7 @@
         <v>49</v>
       </c>
       <c r="B59" s="11">
-        <f>(B8*D52)</f>
+        <f>(B8*E52)</f>
         <v>0</v>
       </c>
     </row>
@@ -2521,12 +2567,12 @@
         <v>32</v>
       </c>
       <c r="B60" s="11">
-        <f>(B8*E52)</f>
+        <f>(B8*F52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="53" t="s">
         <v>33</v>
       </c>
       <c r="B61" s="37">
@@ -2551,72 +2597,73 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="68" t="s">
+      <c r="B64" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="68" t="s">
+      <c r="C64" s="14"/>
+      <c r="D64" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="68" t="s">
+      <c r="E64" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="F65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="F66" s="54"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="67" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="G66" s="80"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="66" t="s">
+      <c r="B67" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="D67" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="E67" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F67" s="66" t="s">
+      <c r="G67" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2624,7 +2671,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>47</v>
       </c>
@@ -2634,7 +2681,7 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>48</v>
       </c>
@@ -2644,7 +2691,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
@@ -2652,7 +2699,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
@@ -2660,7 +2707,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
@@ -2668,7 +2715,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>42</v>
       </c>
@@ -2678,7 +2725,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>44</v>
       </c>
@@ -2688,7 +2735,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>46</v>
       </c>
@@ -2698,12 +2745,12 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793BAB2-AF0D-7D4F-9C03-D07D8691A768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8B3ED-A025-D341-B81C-EF7A0790E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -689,19 +689,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,14 +720,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -779,10 +759,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,15 +792,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -861,12 +841,36 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1216,28 +1220,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1251,10 +1255,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="25">
+      <c r="I3" s="22">
         <v>1</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1266,27 +1270,27 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="27">
+      <c r="I4" s="24">
         <v>2</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="25">
+      <c r="I5" s="22">
         <v>3</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1294,16 +1298,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="27">
+      <c r="I6" s="24">
         <v>4</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="26" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1311,18 +1315,18 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="25">
+      <c r="I7" s="22">
         <v>5</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="27" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1334,10 +1338,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="27">
+      <c r="I8" s="24">
         <v>6</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="25" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1349,10 +1353,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="25">
+      <c r="I9" s="22">
         <v>7</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="27" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1366,10 +1370,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="27">
+      <c r="I10" s="24">
         <v>8</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1395,15 +1399,15 @@
       <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="22">
         <v>9</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1412,15 +1416,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="I12" s="27">
+      <c r="I12" s="24">
         <v>10</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="25" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1435,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1446,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1451,7 +1455,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1460,7 +1464,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1469,7 +1473,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="40"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1478,7 +1482,7 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1487,7 +1491,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1496,7 +1500,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1505,7 +1509,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1514,7 +1518,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="40"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1523,7 +1527,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1532,7 +1536,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1541,7 +1545,7 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1550,7 +1554,7 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1559,7 +1563,7 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1568,31 +1572,31 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="42">
+      <c r="A30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="37">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="37">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="37">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="43"/>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -1615,14 +1619,14 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="41" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="5"/>
@@ -1681,15 +1685,15 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="47">
+      <c r="B37" s="64"/>
+      <c r="C37" s="42">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="43">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
@@ -1718,13 +1722,13 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="5"/>
@@ -1736,7 +1740,7 @@
       <c r="B41" s="9">
         <v>30</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="44">
         <f>A41*B41</f>
         <v>0</v>
       </c>
@@ -1793,12 +1797,12 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="50"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="50"/>
+      <c r="C47" s="45"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1852,15 +1856,15 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -1892,7 +1896,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="50"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
@@ -1951,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1968,26 +1972,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2000,56 +2004,56 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="77"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="56"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="56" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="56" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2074,420 +2078,420 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="19"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="19"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="74"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="19"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="19"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="74"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="19"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="74"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="19"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="74"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="74"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="74"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="74"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="19"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="74"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="19"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="19"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="74"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="19"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="74"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="19"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="74"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="19"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="19"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="19"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="19"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="52"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="19"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="74"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="52"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="19"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="74"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="52"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="19"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="74"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="52"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="19"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="74"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="52"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="74"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="52"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="74"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="19"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="74"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="19"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="74"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="19"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="74"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="19"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="74"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="19"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="74"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="19"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="74"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="19"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="74"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="19"/>
+      <c r="A44" s="80"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="74"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="19"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="74"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="22"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="22"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="19"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="22"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="19"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="74"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="22"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="19"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="74"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="19"/>
+      <c r="A50" s="80"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="74"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="20"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="31">
+      <c r="B52" s="29"/>
+      <c r="C52" s="28">
         <f>SUM(C12:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="28">
         <f>SUM(D12:D51)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="28">
         <f>SUM(E12:E51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="28">
         <f>SUM(F12:F51)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="32"/>
+      <c r="G52" s="29"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
       <c r="F53" s="10"/>
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
@@ -2495,7 +2499,7 @@
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="59"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
@@ -2516,10 +2520,10 @@
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C56" s="14"/>
@@ -2533,7 +2537,7 @@
       <c r="A57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="58">
+      <c r="B57" s="52">
         <f>(B8*C52)</f>
         <v>0</v>
       </c>
@@ -2572,10 +2576,10 @@
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="53" t="s">
+      <c r="A61" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="32">
         <f>SUM(B57:B60)</f>
         <v>0</v>
       </c>
@@ -2597,21 +2601,21 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="59" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="14"/>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="59" t="s">
         <v>62</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="66" t="s">
+      <c r="G64" s="59" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2623,26 +2627,26 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="79"/>
-      <c r="B66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="G66" s="80"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="G66" s="62"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="64" t="s">
+      <c r="D67" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="64" t="s">
+      <c r="E67" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="64" t="s">
+      <c r="G67" s="58" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2772,15 +2776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
@@ -2789,6 +2784,15 @@
     <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3047,20 +3051,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
     <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8B3ED-A025-D341-B81C-EF7A0790E617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CACB0D-1B1A-C644-A8B7-E29A3C5ADC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,6 +806,38 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -840,38 +872,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1220,15 +1220,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
@@ -1281,8 +1281,8 @@
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1298,8 +1298,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1315,10 +1315,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="67"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1581,9 +1581,9 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="37">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1685,10 +1685,10 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="42">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -1955,14 +1955,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="14" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="15" style="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="14" customWidth="1"/>
@@ -1972,23 +1972,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -2004,10 +2004,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2101,364 +2101,364 @@
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="74"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="74"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="63"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="74"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="74"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="63"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="74"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="74"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="74"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="74"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="74"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="74"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="74"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="74"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="74"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="74"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="74"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="74"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="74"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="74"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="74"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="74"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="63"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="74"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="74"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="74"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="74"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="74"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="74"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="74"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="74"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="74"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="76"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="74"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="74"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="74"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="74"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="74"/>
+      <c r="A45" s="69"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="74"/>
+      <c r="A46" s="69"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="74"/>
+      <c r="A47" s="69"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="74"/>
+      <c r="A48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="74"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="74"/>
+      <c r="A50" s="69"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="75"/>
+      <c r="A51" s="69"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
@@ -2776,26 +2776,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3050,26 +3030,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3086,4 +3067,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CACB0D-1B1A-C644-A8B7-E29A3C5ADC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8956D1F5-6942-1F48-91DE-94CFC3286090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blank claim" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Part Time Claim Form" sheetId="32" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -37,7 +37,7 @@
     <definedName name="optiontax">[2]Sheet3!$A$272:$A$273</definedName>
     <definedName name="OT">[2]Sheet3!$A$249:$A$252</definedName>
     <definedName name="pay">[2]Sheet3!$A$244:$A$246</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Part Time Claim Form'!$A$1:$F$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$F$69</definedName>
     <definedName name="probperiod">[2]Sheet3!$A$276:$A$277</definedName>
     <definedName name="Race">[1]Sheet7!$A$48:$A$52</definedName>
     <definedName name="Religion">[1]Sheet7!$C$48:$C$52</definedName>
@@ -280,7 +280,7 @@
     <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +384,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Brush Script MT"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="JasmineUPC"/>
     </font>
     <font>
@@ -776,12 +770,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -802,10 +796,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -872,6 +862,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1220,15 +1214,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
@@ -1281,8 +1275,8 @@
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1298,8 +1292,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1315,10 +1309,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1581,9 +1575,9 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="37">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1685,10 +1679,10 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="42">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -1955,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1972,23 +1966,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -2004,10 +1998,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2101,364 +2095,364 @@
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="63"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="63"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="63"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="62"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="63"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="63"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="63"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="63"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="63"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="62"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="63"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="62"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="63"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="63"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="63"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="63"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="63"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="62"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="63"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="63"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="63"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="62"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="63"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="63"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="63"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="63"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="63"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="63"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="63"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="63"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="63"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="63"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="63"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="62"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="63"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="69"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="63"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="69"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="63"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="62"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="69"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="63"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="62"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="69"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="63"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="69"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="63"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="69"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="63"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="63"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="69"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="63"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="62"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="69"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="64"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
@@ -2619,21 +2613,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="16"/>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="61"/>
-      <c r="B66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="G66" s="62"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="81"/>
+      <c r="B66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="G66" s="61"/>
+    </row>
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="s">
         <v>41</v>
       </c>
@@ -2650,7 +2643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
         <v>45</v>
       </c>
@@ -2675,7 +2668,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>47</v>
       </c>
@@ -2685,7 +2678,7 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>48</v>
       </c>
@@ -2695,7 +2688,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
@@ -2703,7 +2696,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
@@ -2711,7 +2704,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
@@ -2719,7 +2712,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>42</v>
       </c>
@@ -2729,7 +2722,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>44</v>
       </c>
@@ -2739,7 +2732,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>46</v>
       </c>
@@ -2749,7 +2742,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
@@ -3031,15 +3024,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
@@ -3048,6 +3032,15 @@
     <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3070,14 +3063,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3086,4 +3071,12 @@
     <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8956D1F5-6942-1F48-91DE-94CFC3286090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D09B5E-9E20-A348-9AE1-1F3232CDF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Processed by:</t>
   </si>
   <si>
-    <t xml:space="preserve">Blended Learning </t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   <si>
     <t>Approved by
 Dean/ HOS:</t>
+  </si>
+  <si>
+    <t>Blended Learning</t>
   </si>
 </sst>
 </file>
@@ -782,10 +782,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -828,6 +824,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -862,10 +866,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1214,15 +1214,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
@@ -1275,8 +1275,8 @@
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1292,8 +1292,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1309,10 +1309,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1575,9 +1575,9 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="37">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1679,10 +1679,10 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="71"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="42">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -1949,40 +1949,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="14" customWidth="1"/>
-    <col min="4" max="4" width="15" style="14" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16" style="14" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="14" customWidth="1"/>
     <col min="8" max="16384" width="8.5" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -1998,10 +1998,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2014,7 +2014,7 @@
       <c r="B5" s="57"/>
       <c r="C5" s="5"/>
       <c r="D5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2026,7 +2026,7 @@
       <c r="B6" s="50"/>
       <c r="C6" s="5"/>
       <c r="D6" s="56" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2038,14 +2038,14 @@
       <c r="B7" s="50"/>
       <c r="C7" s="5"/>
       <c r="D7" s="56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="5"/>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>19</v>
@@ -2085,378 +2085,378 @@
         <v>21</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="62"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="62"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="62"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="61"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="62"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="62"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="61"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="62"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="62"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="62"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="61"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="62"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="62"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="62"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="61"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="62"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="62"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="61"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="62"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="61"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="62"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="62"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="62"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="62"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="62"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="62"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="62"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="61"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="62"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="62"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="62"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="62"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="62"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="62"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="62"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="62"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="61"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="62"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="62"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="68"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="62"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="62"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="68"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="62"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="61"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="68"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="62"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="68"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="62"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="68"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="62"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="68"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="62"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="68"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="62"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="69"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="63"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="28">
@@ -2503,7 +2503,7 @@
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="14"/>
@@ -2515,10 +2515,10 @@
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="B56" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B59" s="11">
         <f>(B8*E52)</f>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B60" s="11">
         <f>(B8*F52)</f>
@@ -2595,51 +2595,51 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="14"/>
+      <c r="E64" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="59" t="s">
-        <v>62</v>
-      </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="59" t="s">
-        <v>53</v>
+      <c r="G64" s="58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="C65" s="16"/>
       <c r="E65" s="16"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="81"/>
-      <c r="B66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="G66" s="61"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="G66" s="60"/>
     </row>
     <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D67" s="58" t="s">
+      <c r="C67" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="58" t="s">
+      <c r="E67" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="58" t="s">
+      <c r="G67" s="70" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       <c r="B68" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -2668,7 +2668,7 @@
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
         <v>47</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="E70" s="18"/>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>48</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="6"/>
@@ -2696,7 +2696,7 @@
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="6"/>
@@ -2704,7 +2704,7 @@
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="15"/>
       <c r="C74" s="6"/>
@@ -2712,7 +2712,7 @@
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>42</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>44</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>46</v>
       </c>
@@ -2742,7 +2742,7 @@
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
@@ -2769,6 +2769,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3023,27 +3043,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3060,23 +3079,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D09B5E-9E20-A348-9AE1-1F3232CDF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB02D12-425D-A745-81C8-7B93B0F33686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,10 +778,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -866,6 +862,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1214,15 +1214,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
@@ -1275,8 +1275,8 @@
       <c r="A5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -1292,8 +1292,8 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1309,10 +1309,10 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1575,9 +1575,9 @@
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="37">
         <f>SUM(D12:D29)</f>
         <v>0</v>
@@ -1679,10 +1679,10 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="72"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="42">
         <f>SUM(C34:C36)</f>
         <v>0</v>
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,23 +1966,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -1998,10 +1998,10 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2011,7 +2011,7 @@
       <c r="A5" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="5"/>
       <c r="D5" s="55" t="s">
         <v>56</v>
@@ -2095,364 +2095,364 @@
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="61"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="61"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="61"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="61"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="61"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="61"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="61"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="61"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="61"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="61"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="61"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="61"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="61"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="61"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="61"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="61"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="61"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="61"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="61"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="61"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="61"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="61"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="61"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="61"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="61"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="61"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="63"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="61"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63"/>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="61"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="61"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="61"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="61"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="61"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="61"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="67"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="61"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="67"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="61"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="60"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="67"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="61"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="60"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="62"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="51" t="s">
@@ -2595,21 +2595,21 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="57" t="s">
         <v>60</v>
       </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="58" t="s">
+      <c r="E64" s="57" t="s">
         <v>61</v>
       </c>
       <c r="F64" s="14"/>
-      <c r="G64" s="58" t="s">
+      <c r="G64" s="57" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2620,26 +2620,26 @@
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="G66" s="60"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="G66" s="59"/>
     </row>
     <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="70" t="s">
+      <c r="A67" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C67" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="70" t="s">
+      <c r="E67" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="70" t="s">
+      <c r="G67" s="69" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2769,6 +2769,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
@@ -2777,15 +2786,6 @@
     <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3044,20 +3044,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36D07A5C-FADC-445E-8FF9-52FC46CAE3DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
     <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB02D12-425D-A745-81C8-7B93B0F33686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59FE01-54E6-2D4E-AECF-CD93ED699BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,9 +659,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -828,6 +825,10 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -863,9 +864,8 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1225,17 +1225,17 @@
       <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1249,10 +1249,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <v>1</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1264,15 +1264,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>2</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="73"/>
@@ -1281,10 +1281,10 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>3</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1298,10 +1298,10 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>4</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1317,10 +1317,10 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <v>5</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1332,10 +1332,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <v>6</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="24" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1347,10 +1347,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <v>7</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1364,10 +1364,10 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <v>8</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1393,15 +1393,15 @@
       <c r="G11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <v>9</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="9" t="s">
         <v>25</v>
       </c>
@@ -1410,15 +1410,15 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>10</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1449,7 +1449,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1458,7 +1458,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1467,7 +1467,7 @@
       <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1476,7 +1476,7 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1485,7 +1485,7 @@
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1494,7 +1494,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1503,7 +1503,7 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1512,7 +1512,7 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1521,7 +1521,7 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1530,7 +1530,7 @@
       <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1539,7 +1539,7 @@
       <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1548,7 +1548,7 @@
       <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1557,7 +1557,7 @@
       <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1566,31 +1566,31 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
       <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="38"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -1613,14 +1613,14 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="5"/>
@@ -1632,11 +1632,11 @@
         <v>30</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>D30</f>
         <v>0</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <f>C34*B34</f>
         <v>0</v>
       </c>
@@ -1649,11 +1649,11 @@
         <v>31</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <f>C35*B35</f>
         <v>0</v>
       </c>
@@ -1666,11 +1666,11 @@
         <v>32</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <f>C36*B36</f>
         <v>0</v>
       </c>
@@ -1683,11 +1683,11 @@
         <v>33</v>
       </c>
       <c r="B37" s="71"/>
-      <c r="C37" s="42">
+      <c r="C37" s="41">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="43">
+      <c r="D37" s="42">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="40" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="5"/>
@@ -1734,7 +1734,7 @@
       <c r="B41" s="9">
         <v>30</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C41" s="43">
         <f>A41*B41</f>
         <v>0</v>
       </c>
@@ -1791,12 +1791,12 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="44"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1850,15 +1850,15 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -1890,7 +1890,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
@@ -1949,20 +1949,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="243" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="16" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16" style="14" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.5" style="14"/>
+    <col min="1" max="1" width="27.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16" style="13" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="8.5" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1977,15 +1977,15 @@
       <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="32"/>
       <c r="B2" s="78"/>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -2008,46 +2008,46 @@
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="54" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2072,490 +2072,490 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="60"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="60"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="60"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="60"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="60"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="60"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="60"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="60"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="60"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="60"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="60"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="60"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="60"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="60"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="60"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="60"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="60"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="60"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="60"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="60"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="60"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="60"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="60"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="60"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="60"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="59"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="60"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="59"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="60"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="59"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="60"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="66"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="60"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="59"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="66"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="60"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="59"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="66"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="60"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="59"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="66"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="60"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="59"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="66"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="60"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="59"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="66"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="60"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="61"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="28">
+      <c r="B52" s="28"/>
+      <c r="C52" s="27">
         <f>SUM(C12:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="28">
+      <c r="D52" s="27">
         <f>SUM(D12:D51)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="27">
         <f>SUM(E12:E51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="27">
         <f>SUM(F12:F51)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
       <c r="F53" s="10"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31" t="s">
+      <c r="A56" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="52">
+      <c r="B57" s="51">
         <f>(B8*C52)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="81">
         <f>(B8*D52)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="81">
         <f>(B8*E52)</f>
         <v>0</v>
       </c>
@@ -2564,16 +2564,16 @@
       <c r="A60" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="81">
         <f>(B8*F52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="31">
         <f>SUM(B57:B60)</f>
         <v>0</v>
       </c>
@@ -2595,56 +2595,56 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="57" t="s">
+      <c r="D64" s="13"/>
+      <c r="E64" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="14"/>
-      <c r="G64" s="57" t="s">
+      <c r="F64" s="13"/>
+      <c r="G64" s="56" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="G65" s="16"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="G65" s="15"/>
     </row>
     <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="68"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="G66" s="59"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="G66" s="58"/>
     </row>
     <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="69" t="s">
+      <c r="A67" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="69" t="s">
+      <c r="B67" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="69" t="s">
+      <c r="C67" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="69" t="s">
+      <c r="E67" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="69" t="s">
+      <c r="G67" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2669,17 +2669,17 @@
       <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B71" s="6"/>
@@ -2689,16 +2689,16 @@
       <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -2706,37 +2706,37 @@
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="B74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
     <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="15"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -2769,26 +2769,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -3043,10 +3023,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3063,20 +3074,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59FE01-54E6-2D4E-AECF-CD93ED699BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678FC5AB-4224-D049-AE2E-9EFC3C155FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>PART TIME LECTURER'S CLAIM FORM</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Blended Learning</t>
+  </si>
+  <si>
+    <t>Practical</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -649,10 +652,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -674,12 +673,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,6 +822,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -864,7 +860,10 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1214,28 +1213,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1249,10 +1248,10 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1264,27 +1263,27 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="23">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1292,16 +1291,16 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>4</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1309,18 +1308,18 @@
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>5</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1332,10 +1331,10 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="23">
+      <c r="I8" s="20">
         <v>6</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1347,10 +1346,10 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>7</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1364,233 +1363,233 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="23">
+      <c r="I10" s="20">
         <v>8</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>9</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="19" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="I12" s="23">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="I12" s="20">
         <v>10</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="34"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="9"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="36">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="33">
         <f>SUM(D12:D29)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="33">
         <f>SUM(E12:E29)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="33">
         <f>SUM(F12:F29)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="37"/>
+      <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
@@ -1602,7 +1601,7 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="5"/>
@@ -1613,14 +1612,14 @@
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D33" s="37" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="5"/>
@@ -1628,15 +1627,15 @@
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="11">
+      <c r="B34" s="8"/>
+      <c r="C34" s="10">
         <f>D30</f>
         <v>0</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <f>C34*B34</f>
         <v>0</v>
       </c>
@@ -1645,15 +1644,15 @@
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11">
+      <c r="B35" s="8"/>
+      <c r="C35" s="10">
         <f>E30</f>
         <v>0</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="10">
         <f>C35*B35</f>
         <v>0</v>
       </c>
@@ -1662,15 +1661,15 @@
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11">
+      <c r="B36" s="8"/>
+      <c r="C36" s="10">
         <f>F30</f>
         <v>0</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <f>C36*B36</f>
         <v>0</v>
       </c>
@@ -1679,15 +1678,15 @@
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="41">
+      <c r="B37" s="69"/>
+      <c r="C37" s="38">
         <f>SUM(C34:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="42">
+      <c r="D37" s="39">
         <f>SUM(D34:D36)</f>
         <v>0</v>
       </c>
@@ -1705,7 +1704,7 @@
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B39" s="5"/>
@@ -1716,13 +1715,13 @@
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="37" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="5"/>
@@ -1730,11 +1729,11 @@
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8">
         <v>30</v>
       </c>
-      <c r="C41" s="43">
+      <c r="C41" s="40">
         <f>A41*B41</f>
         <v>0</v>
       </c>
@@ -1791,12 +1790,12 @@
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="44"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="44"/>
+      <c r="C47" s="41"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1850,15 +1849,15 @@
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="45"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
@@ -1890,7 +1889,7 @@
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="44"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="1"/>
@@ -1947,45 +1946,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="243" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="134" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16" style="13" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="8.5" style="13"/>
+    <col min="1" max="1" width="27.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="16" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="8.5" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1998,56 +1997,56 @@
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="79"/>
+      <c r="B4" s="77"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="51" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="52" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2072,508 +2071,508 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="59"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="59"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="59"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="59"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="59"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="59"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="56"/>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="59"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="56"/>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="59"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="56"/>
     </row>
     <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="59"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="59"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="56"/>
     </row>
     <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="59"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="59"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="56"/>
     </row>
     <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="59"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="56"/>
     </row>
     <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="59"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="56"/>
     </row>
     <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="59"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="56"/>
     </row>
     <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="59"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="56"/>
     </row>
     <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="59"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="59"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="56"/>
     </row>
     <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="59"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="56"/>
     </row>
     <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="59"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="56"/>
     </row>
     <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="59"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="56"/>
     </row>
     <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="59"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="56"/>
     </row>
     <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="59"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="56"/>
     </row>
     <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="59"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="56"/>
     </row>
     <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="59"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="59"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="56"/>
     </row>
     <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="59"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="56"/>
     </row>
     <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="59"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="56"/>
     </row>
     <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="59"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="56"/>
     </row>
     <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="59"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="56"/>
     </row>
     <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="59"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="56"/>
     </row>
     <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="59"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="59"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="56"/>
     </row>
     <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="59"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="59"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="56"/>
     </row>
     <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="59"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="59"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="56"/>
     </row>
     <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="59"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="56"/>
     </row>
     <row r="51" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="60"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="1:10" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50" t="s">
+      <c r="A52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="27">
+      <c r="B52" s="25"/>
+      <c r="C52" s="24">
         <f>SUM(C12:C51)</f>
         <v>0</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="24">
         <f>SUM(D12:D51)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="24">
         <f>SUM(E12:E51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="24">
         <f>SUM(F12:F51)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="10"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="9"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="10"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="5"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B57" s="51">
+      <c r="B57" s="48">
         <f>(B8*C52)</f>
         <v>0</v>
       </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="81">
+      <c r="B58" s="67">
         <f>(B8*D52)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
     </row>
     <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="81">
+      <c r="A59" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="67">
         <f>(B8*E52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="81">
+      <c r="B60" s="67">
         <f>(B8*F52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="28">
         <f>SUM(B57:B60)</f>
         <v>0</v>
       </c>
@@ -2595,56 +2594,56 @@
       <c r="F63" s="5"/>
     </row>
     <row r="64" spans="1:10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="56" t="s">
+      <c r="D64" s="12"/>
+      <c r="E64" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="56" t="s">
+      <c r="F64" s="12"/>
+      <c r="G64" s="53" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="G65" s="14"/>
     </row>
     <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="67"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="G66" s="58"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="G66" s="55"/>
     </row>
     <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="68" t="s">
+      <c r="B67" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="68" t="s">
+      <c r="C67" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="E67" s="68" t="s">
+      <c r="E67" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="G67" s="68" t="s">
+      <c r="G67" s="65" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2661,88 +2660,77 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="80"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="79"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="14"/>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="13"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B75" s="14"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="13"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="14"/>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="13"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B77" s="14"/>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="13"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>

--- a/app/files/Part-Time Lecturer Claim Form - template.xlsx
+++ b/app/files/Part-Time Lecturer Claim Form - template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliadavid/App/CourseXcel/app/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89243D4-80AD-7D4F-B64E-4120C20289C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0EA69B-E7B7-4449-B39E-0E99C1E57F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="-720" windowWidth="28800" windowHeight="17500" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="846" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="32" r:id="rId1"/>
@@ -186,9 +186,9 @@
     <numFmt numFmtId="44" formatCode="_(&quot;RM&quot;* #,##0.00_);_(&quot;RM&quot;* \(#,##0.00\);_(&quot;RM&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_([$MYR]\ * #,##0_);_([$MYR]\ * \(#,##0\);_([$MYR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -444,7 +444,7 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -497,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -562,7 +562,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -582,9 +582,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -593,6 +590,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="134" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="134" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,23 +941,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -973,10 +973,10 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1518,7 +1518,7 @@
       <c r="A58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="43">
+      <c r="B58" s="46">
         <f>(B8*D52)</f>
         <v>0</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="A59" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B59" s="43">
+      <c r="B59" s="46">
         <f>(B8*E52)</f>
         <v>0</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="A60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="46">
         <f>(B8*F52)</f>
         <v>0</v>
       </c>
@@ -1714,45 +1714,18 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:F2 A4:B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:F2 A4:B4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB3645FD009914E90050545EEE2BF69" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a536e2a6beb9bff2427a440391878615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed9e16c4-1eed-4354-9871-d189e3c9a5fe" xmlns:ns3="98cd172a-97c0-47c0-9786-0a002598d91f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4eeb6a56791bed3cae1faef355ed4e3e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
@@ -2007,10 +1980,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed9e16c4-1eed-4354-9871-d189e3c9a5fe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="98cd172a-97c0-47c0-9786-0a002598d91f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
+    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2027,20 +2031,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83955110-4449-4DD1-941B-A3B0162DAAA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41EB504E-5265-4283-AD42-2C956FF5325F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed9e16c4-1eed-4354-9871-d189e3c9a5fe"/>
-    <ds:schemaRef ds:uri="98cd172a-97c0-47c0-9786-0a002598d91f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>